--- a/daily report.xlsx
+++ b/daily report.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="61">
   <si>
     <t>프로젝트명</t>
   </si>
@@ -166,6 +166,9 @@
     <t>중간점검 및 회의</t>
   </si>
   <si>
+    <t>opencv공부</t>
+  </si>
+  <si>
     <t>카카오api</t>
   </si>
   <si>
@@ -175,10 +178,28 @@
     <t>반응형 웹구현</t>
   </si>
   <si>
+    <t>기초라이브러리공부</t>
+  </si>
+  <si>
     <t>개인정비</t>
   </si>
   <si>
     <t>css수정</t>
+  </si>
+  <si>
+    <t>html공부</t>
+  </si>
+  <si>
+    <t>카카오api탑재, 메일발송기능추가중</t>
+  </si>
+  <si>
+    <t>알림 DB에 저장기능 구현</t>
+  </si>
+  <si>
+    <t>모델링 정제, 아이디어도출</t>
+  </si>
+  <si>
+    <t>css공부</t>
   </si>
 </sst>
 </file>
@@ -188,7 +209,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -208,14 +229,25 @@
       <name val="Calibri"/>
     </font>
     <font/>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="20">
     <border/>
@@ -444,7 +476,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -537,6 +569,9 @@
     </xf>
     <xf borderId="19" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="15" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="center"/>
@@ -1085,7 +1120,9 @@
         <v>48</v>
       </c>
       <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
+      <c r="J14" s="27" t="s">
+        <v>49</v>
+      </c>
       <c r="K14" s="30"/>
     </row>
     <row r="15" ht="17.25" customHeight="1">
@@ -1093,22 +1130,24 @@
         <v>44093.0</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C15" s="29"/>
       <c r="D15" s="27" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E15" s="29"/>
       <c r="F15" s="27" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G15" s="29"/>
       <c r="H15" s="27" t="s">
         <v>47</v>
       </c>
       <c r="I15" s="29"/>
-      <c r="J15" s="27"/>
+      <c r="J15" s="31" t="s">
+        <v>53</v>
+      </c>
       <c r="K15" s="30"/>
     </row>
     <row r="16" ht="17.25" customHeight="1">
@@ -1116,37 +1155,49 @@
         <v>44094.0</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C16" s="29"/>
       <c r="D16" s="27" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E16" s="29"/>
       <c r="F16" s="27" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G16" s="29"/>
       <c r="H16" s="27" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
+      <c r="J16" s="31" t="s">
+        <v>56</v>
+      </c>
       <c r="K16" s="30"/>
     </row>
     <row r="17" ht="17.25" customHeight="1">
       <c r="A17" s="26">
         <v>44095.0</v>
       </c>
-      <c r="B17" s="29"/>
+      <c r="B17" s="27" t="s">
+        <v>57</v>
+      </c>
       <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
+      <c r="D17" s="27" t="s">
+        <v>58</v>
+      </c>
       <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
+      <c r="F17" s="27" t="s">
+        <v>52</v>
+      </c>
       <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
+      <c r="H17" s="27" t="s">
+        <v>59</v>
+      </c>
       <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
+      <c r="J17" s="31" t="s">
+        <v>60</v>
+      </c>
       <c r="K17" s="30"/>
     </row>
     <row r="18" ht="17.25" customHeight="1">
@@ -1165,46 +1216,46 @@
       <c r="K18" s="30"/>
     </row>
     <row r="19" ht="17.25" customHeight="1">
-      <c r="A19" s="31">
+      <c r="A19" s="32">
         <v>44097.0</v>
       </c>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="33"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="34"/>
     </row>
     <row r="20" ht="17.25" customHeight="1">
-      <c r="A20" s="34"/>
+      <c r="A20" s="35"/>
     </row>
     <row r="21" ht="17.25" customHeight="1">
-      <c r="A21" s="34"/>
+      <c r="A21" s="35"/>
     </row>
     <row r="22" ht="17.25" customHeight="1">
-      <c r="A22" s="34"/>
+      <c r="A22" s="35"/>
     </row>
     <row r="23" ht="17.25" customHeight="1">
-      <c r="A23" s="34"/>
+      <c r="A23" s="35"/>
     </row>
     <row r="24" ht="17.25" customHeight="1">
-      <c r="A24" s="34"/>
+      <c r="A24" s="35"/>
     </row>
     <row r="25" ht="17.25" customHeight="1">
-      <c r="A25" s="34"/>
+      <c r="A25" s="35"/>
     </row>
     <row r="26" ht="17.25" customHeight="1">
-      <c r="A26" s="34"/>
+      <c r="A26" s="35"/>
     </row>
     <row r="27" ht="17.25" customHeight="1">
-      <c r="A27" s="34"/>
+      <c r="A27" s="35"/>
     </row>
     <row r="28" ht="17.25" customHeight="1">
-      <c r="A28" s="34"/>
+      <c r="A28" s="35"/>
     </row>
     <row r="29" ht="17.25" customHeight="1"/>
     <row r="30" ht="17.25" customHeight="1"/>

--- a/daily report.xlsx
+++ b/daily report.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="66">
   <si>
     <t>프로젝트명</t>
   </si>
@@ -200,6 +200,21 @@
   </si>
   <si>
     <t>css공부</t>
+  </si>
+  <si>
+    <t>웹 기능추가 마무리</t>
+  </si>
+  <si>
+    <t>알림 db에 저장 후 출력</t>
+  </si>
+  <si>
+    <t>웹페이지 마무리</t>
+  </si>
+  <si>
+    <t>test모델 영상제작</t>
+  </si>
+  <si>
+    <t>딥러닝 이론 공부</t>
   </si>
 </sst>
 </file>
@@ -1204,15 +1219,25 @@
       <c r="A18" s="26">
         <v>44096.0</v>
       </c>
-      <c r="B18" s="29"/>
+      <c r="B18" s="27" t="s">
+        <v>61</v>
+      </c>
       <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
+      <c r="D18" s="27" t="s">
+        <v>62</v>
+      </c>
       <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
+      <c r="F18" s="27" t="s">
+        <v>63</v>
+      </c>
       <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
+      <c r="H18" s="27" t="s">
+        <v>64</v>
+      </c>
       <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
+      <c r="J18" s="27" t="s">
+        <v>65</v>
+      </c>
       <c r="K18" s="30"/>
     </row>
     <row r="19" ht="17.25" customHeight="1">

--- a/daily report.xlsx
+++ b/daily report.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="71">
   <si>
     <t>프로젝트명</t>
   </si>
@@ -215,6 +215,21 @@
   </si>
   <si>
     <t>딥러닝 이론 공부</t>
+  </si>
+  <si>
+    <t>발표 녹화, 영상촬영</t>
+  </si>
+  <si>
+    <t>ppt제작</t>
+  </si>
+  <si>
+    <t>영상편집</t>
+  </si>
+  <si>
+    <t>영상촬영</t>
+  </si>
+  <si>
+    <t>자연어 정규표현식 공부</t>
   </si>
 </sst>
 </file>
@@ -491,7 +506,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -590,6 +605,9 @@
     </xf>
     <xf borderId="15" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -1244,43 +1262,53 @@
       <c r="A19" s="32">
         <v>44097.0</v>
       </c>
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="34"/>
+      <c r="B19" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="34"/>
+      <c r="D19" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E19" s="34"/>
+      <c r="F19" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="G19" s="34"/>
+      <c r="H19" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="I19" s="34"/>
+      <c r="J19" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="K19" s="35"/>
     </row>
     <row r="20" ht="17.25" customHeight="1">
-      <c r="A20" s="35"/>
+      <c r="A20" s="36"/>
     </row>
     <row r="21" ht="17.25" customHeight="1">
-      <c r="A21" s="35"/>
+      <c r="A21" s="36"/>
     </row>
     <row r="22" ht="17.25" customHeight="1">
-      <c r="A22" s="35"/>
+      <c r="A22" s="36"/>
     </row>
     <row r="23" ht="17.25" customHeight="1">
-      <c r="A23" s="35"/>
+      <c r="A23" s="36"/>
     </row>
     <row r="24" ht="17.25" customHeight="1">
-      <c r="A24" s="35"/>
+      <c r="A24" s="36"/>
     </row>
     <row r="25" ht="17.25" customHeight="1">
-      <c r="A25" s="35"/>
+      <c r="A25" s="36"/>
     </row>
     <row r="26" ht="17.25" customHeight="1">
-      <c r="A26" s="35"/>
+      <c r="A26" s="36"/>
     </row>
     <row r="27" ht="17.25" customHeight="1">
-      <c r="A27" s="35"/>
+      <c r="A27" s="36"/>
     </row>
     <row r="28" ht="17.25" customHeight="1">
-      <c r="A28" s="35"/>
+      <c r="A28" s="36"/>
     </row>
     <row r="29" ht="17.25" customHeight="1"/>
     <row r="30" ht="17.25" customHeight="1"/>
